--- a/database/industries/methanol/shekolor/income/quarterly/rial_cumulative.xlsx
+++ b/database/industries/methanol/shekolor/income/quarterly/rial_cumulative.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekolor\income\quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\methanol\shekolor\income\quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FD8F2F8-5A63-46B3-BEE7-2FEEB59E2DA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32BA4177-A947-4421-9D26-E68F525C68DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -37,9 +37,6 @@
     <t>دوره مالی</t>
   </si>
   <si>
-    <t>9 ماهه منتهی به 1399/02</t>
-  </si>
-  <si>
     <t>12 ماهه منتهی به 1399/12</t>
   </si>
   <si>
@@ -67,12 +64,12 @@
     <t>12 ماهه منتهی به 1401/08</t>
   </si>
   <si>
+    <t>3 ماهه منتهی به 1401/11</t>
+  </si>
+  <si>
     <t>تاریخ انتشار</t>
   </si>
   <si>
-    <t>1399-03-30</t>
-  </si>
-  <si>
     <t>1400-10-08 (15)</t>
   </si>
   <si>
@@ -94,7 +91,10 @@
     <t>1401-06-30</t>
   </si>
   <si>
-    <t>1401-10-28 (3)</t>
+    <t>1401-12-29 (4)</t>
+  </si>
+  <si>
+    <t>1401-12-29</t>
   </si>
   <si>
     <t>فروش</t>
@@ -619,19 +619,19 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="54" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
-    <col min="5" max="5" width="29" customWidth="1"/>
-    <col min="6" max="8" width="28" customWidth="1"/>
-    <col min="9" max="9" width="29" customWidth="1"/>
-    <col min="10" max="12" width="28" customWidth="1"/>
-    <col min="13" max="13" width="29" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="7" width="28" customWidth="1"/>
+    <col min="8" max="8" width="29" customWidth="1"/>
+    <col min="9" max="11" width="28" customWidth="1"/>
+    <col min="12" max="12" width="29" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -645,7 +645,7 @@
       <c r="L1" s="1"/>
       <c r="M1" s="1"/>
     </row>
-    <row r="2" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -661,7 +661,7 @@
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
     </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -677,7 +677,7 @@
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -691,7 +691,7 @@
       <c r="L4" s="1"/>
       <c r="M4" s="1"/>
     </row>
-    <row r="5" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -707,7 +707,7 @@
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
     </row>
-    <row r="6" spans="2:13" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:13" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -723,7 +723,7 @@
       <c r="L6" s="4"/>
       <c r="M6" s="4"/>
     </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -737,7 +737,7 @@
       <c r="L7" s="1"/>
       <c r="M7" s="1"/>
     </row>
-    <row r="8" spans="2:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:13" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -773,7 +773,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
@@ -787,10 +787,10 @@
       <c r="F9" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="G9" s="9"/>
+      <c r="H9" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="9"/>
       <c r="I9" s="9" t="s">
         <v>20</v>
       </c>
@@ -807,7 +807,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B10" s="10"/>
       <c r="C10" s="11"/>
       <c r="D10" s="11"/>
@@ -821,151 +821,151 @@
       <c r="L10" s="11"/>
       <c r="M10" s="11"/>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B11" s="12" t="s">
         <v>25</v>
       </c>
       <c r="C11" s="13"/>
       <c r="D11" s="13">
-        <v>1434006</v>
+        <v>1994706</v>
       </c>
       <c r="E11" s="13">
-        <v>1994706</v>
+        <v>761556</v>
       </c>
       <c r="F11" s="13">
-        <v>761556</v>
-      </c>
-      <c r="G11" s="13">
         <v>2037897</v>
       </c>
-      <c r="H11" s="13" t="s">
-        <v>26</v>
+      <c r="G11" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="13">
+        <v>3049033</v>
       </c>
       <c r="I11" s="13">
-        <v>3049033</v>
+        <v>1803801</v>
       </c>
       <c r="J11" s="13">
-        <v>1803801</v>
+        <v>3883709</v>
       </c>
       <c r="K11" s="13">
-        <v>3883709</v>
+        <v>5718026</v>
       </c>
       <c r="L11" s="13">
-        <v>5718026</v>
+        <v>8001536</v>
       </c>
       <c r="M11" s="13">
-        <v>8001536</v>
-      </c>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.25">
+        <v>2241847</v>
+      </c>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B12" s="10" t="s">
         <v>27</v>
       </c>
       <c r="C12" s="11"/>
       <c r="D12" s="11">
-        <v>-718024</v>
+        <v>-968950</v>
       </c>
       <c r="E12" s="11">
-        <v>-968950</v>
+        <v>-339263</v>
       </c>
       <c r="F12" s="11">
-        <v>-339263</v>
-      </c>
-      <c r="G12" s="11">
         <v>-1177381</v>
       </c>
-      <c r="H12" s="11" t="s">
-        <v>26</v>
+      <c r="G12" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H12" s="11">
+        <v>-1724946</v>
       </c>
       <c r="I12" s="11">
-        <v>-1724946</v>
+        <v>-567700</v>
       </c>
       <c r="J12" s="11">
-        <v>-567700</v>
+        <v>-1328999</v>
       </c>
       <c r="K12" s="11">
-        <v>-1328999</v>
+        <v>-2127202</v>
       </c>
       <c r="L12" s="11">
-        <v>-2127202</v>
+        <v>-2980516</v>
       </c>
       <c r="M12" s="11">
-        <v>-2980516</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-840364</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B13" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="15">
-        <v>715982</v>
+        <v>1025756</v>
       </c>
       <c r="E13" s="15">
-        <v>1025756</v>
+        <v>422293</v>
       </c>
       <c r="F13" s="15">
-        <v>422293</v>
-      </c>
-      <c r="G13" s="15">
         <v>860516</v>
       </c>
-      <c r="H13" s="15" t="s">
-        <v>26</v>
+      <c r="G13" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="15">
+        <v>1324087</v>
       </c>
       <c r="I13" s="15">
-        <v>1324087</v>
+        <v>1236101</v>
       </c>
       <c r="J13" s="15">
-        <v>1236101</v>
+        <v>2554710</v>
       </c>
       <c r="K13" s="15">
-        <v>2554710</v>
+        <v>3590824</v>
       </c>
       <c r="L13" s="15">
-        <v>3590824</v>
+        <v>5021020</v>
       </c>
       <c r="M13" s="15">
-        <v>5021020</v>
-      </c>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1401483</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="11"/>
       <c r="D14" s="11">
-        <v>-97541</v>
+        <v>-96381</v>
       </c>
       <c r="E14" s="11">
-        <v>-96381</v>
+        <v>-31248</v>
       </c>
       <c r="F14" s="11">
-        <v>-31248</v>
-      </c>
-      <c r="G14" s="11">
         <v>-151528</v>
       </c>
-      <c r="H14" s="11" t="s">
-        <v>26</v>
+      <c r="G14" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="11">
+        <v>-253507</v>
       </c>
       <c r="I14" s="11">
-        <v>-253507</v>
+        <v>-95724</v>
       </c>
       <c r="J14" s="11">
-        <v>-95724</v>
+        <v>-238494</v>
       </c>
       <c r="K14" s="11">
-        <v>-238494</v>
+        <v>-430022</v>
       </c>
       <c r="L14" s="11">
-        <v>-430022</v>
+        <v>-496855</v>
       </c>
       <c r="M14" s="11">
-        <v>-496855</v>
-      </c>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-151717</v>
+      </c>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>30</v>
       </c>
@@ -979,11 +979,11 @@
       <c r="F15" s="13">
         <v>0</v>
       </c>
-      <c r="G15" s="13">
-        <v>0</v>
-      </c>
-      <c r="H15" s="13" t="s">
-        <v>26</v>
+      <c r="G15" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
       </c>
       <c r="I15" s="13">
         <v>0</v>
@@ -1001,259 +1001,259 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
       <c r="C16" s="11"/>
       <c r="D16" s="11">
-        <v>129046</v>
+        <v>83739</v>
       </c>
       <c r="E16" s="11">
-        <v>83739</v>
+        <v>48574</v>
       </c>
       <c r="F16" s="11">
-        <v>48574</v>
-      </c>
-      <c r="G16" s="11">
         <v>70209</v>
       </c>
-      <c r="H16" s="11" t="s">
-        <v>26</v>
+      <c r="G16" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H16" s="11">
+        <v>119005</v>
       </c>
       <c r="I16" s="11">
-        <v>119005</v>
+        <v>40771</v>
       </c>
       <c r="J16" s="11">
-        <v>40771</v>
+        <v>52335</v>
       </c>
       <c r="K16" s="11">
-        <v>52335</v>
+        <v>127529</v>
       </c>
       <c r="L16" s="11">
-        <v>127529</v>
+        <v>189764</v>
       </c>
       <c r="M16" s="11">
-        <v>189764</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
+        <v>163473</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B17" s="14" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="15"/>
       <c r="D17" s="15">
-        <v>747487</v>
+        <v>1013114</v>
       </c>
       <c r="E17" s="15">
-        <v>1013114</v>
+        <v>439619</v>
       </c>
       <c r="F17" s="15">
-        <v>439619</v>
-      </c>
-      <c r="G17" s="15">
         <v>779197</v>
       </c>
-      <c r="H17" s="15" t="s">
-        <v>26</v>
+      <c r="G17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="15">
+        <v>1189585</v>
       </c>
       <c r="I17" s="15">
-        <v>1189585</v>
+        <v>1181148</v>
       </c>
       <c r="J17" s="15">
-        <v>1181148</v>
+        <v>2368551</v>
       </c>
       <c r="K17" s="15">
-        <v>2368551</v>
+        <v>3288331</v>
       </c>
       <c r="L17" s="15">
-        <v>3288331</v>
+        <v>4713929</v>
       </c>
       <c r="M17" s="15">
-        <v>4713929</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1413239</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B18" s="10" t="s">
         <v>33</v>
       </c>
       <c r="C18" s="11"/>
       <c r="D18" s="11">
-        <v>-61356</v>
+        <v>-32821</v>
       </c>
       <c r="E18" s="11">
-        <v>-32821</v>
+        <v>-14780</v>
       </c>
       <c r="F18" s="11">
-        <v>-14780</v>
-      </c>
-      <c r="G18" s="11">
         <v>-39598</v>
       </c>
-      <c r="H18" s="11" t="s">
-        <v>26</v>
+      <c r="G18" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H18" s="11">
+        <v>-56214</v>
       </c>
       <c r="I18" s="11">
-        <v>-56214</v>
+        <v>-13975</v>
       </c>
       <c r="J18" s="11">
-        <v>-13975</v>
+        <v>-13028</v>
       </c>
       <c r="K18" s="11">
         <v>-13028</v>
       </c>
       <c r="L18" s="11">
-        <v>-13028</v>
+        <v>-25407</v>
       </c>
       <c r="M18" s="11">
-        <v>-25407</v>
-      </c>
-    </row>
-    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B19" s="12" t="s">
         <v>34</v>
       </c>
       <c r="C19" s="13"/>
       <c r="D19" s="13">
-        <v>42121</v>
+        <v>50013</v>
       </c>
       <c r="E19" s="13">
-        <v>50013</v>
+        <v>24755</v>
       </c>
       <c r="F19" s="13">
-        <v>24755</v>
-      </c>
-      <c r="G19" s="13">
         <v>40831</v>
       </c>
-      <c r="H19" s="13" t="s">
-        <v>26</v>
+      <c r="G19" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" s="13">
+        <v>42428</v>
       </c>
       <c r="I19" s="13">
-        <v>42428</v>
+        <v>8499</v>
       </c>
       <c r="J19" s="13">
-        <v>8499</v>
+        <v>26499</v>
       </c>
       <c r="K19" s="13">
-        <v>26499</v>
+        <v>31725</v>
       </c>
       <c r="L19" s="13">
-        <v>31725</v>
+        <v>113030</v>
       </c>
       <c r="M19" s="13">
-        <v>113030</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
+        <v>36211</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B20" s="16" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="17"/>
       <c r="D20" s="17">
-        <v>728252</v>
+        <v>1030306</v>
       </c>
       <c r="E20" s="17">
-        <v>1030306</v>
+        <v>449594</v>
       </c>
       <c r="F20" s="17">
-        <v>449594</v>
-      </c>
-      <c r="G20" s="17">
         <v>780430</v>
       </c>
-      <c r="H20" s="17" t="s">
-        <v>26</v>
+      <c r="G20" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H20" s="17">
+        <v>1175799</v>
       </c>
       <c r="I20" s="17">
-        <v>1175799</v>
+        <v>1175672</v>
       </c>
       <c r="J20" s="17">
-        <v>1175672</v>
+        <v>2382022</v>
       </c>
       <c r="K20" s="17">
-        <v>2382022</v>
+        <v>3307028</v>
       </c>
       <c r="L20" s="17">
-        <v>3307028</v>
+        <v>4801552</v>
       </c>
       <c r="M20" s="17">
-        <v>4801552</v>
-      </c>
-    </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1449450</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B21" s="12" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="13"/>
       <c r="D21" s="13">
-        <v>-84515</v>
+        <v>-106773</v>
       </c>
       <c r="E21" s="13">
-        <v>-106773</v>
+        <v>-28939</v>
       </c>
       <c r="F21" s="13">
-        <v>-28939</v>
-      </c>
-      <c r="G21" s="13">
         <v>-68807</v>
       </c>
-      <c r="H21" s="13" t="s">
-        <v>26</v>
+      <c r="G21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H21" s="13">
+        <v>-143742</v>
       </c>
       <c r="I21" s="13">
-        <v>-143742</v>
+        <v>-158181</v>
       </c>
       <c r="J21" s="13">
-        <v>-158181</v>
+        <v>-354869</v>
       </c>
       <c r="K21" s="13">
-        <v>-354869</v>
+        <v>-479943</v>
       </c>
       <c r="L21" s="13">
-        <v>-479943</v>
+        <v>-607778</v>
       </c>
       <c r="M21" s="13">
-        <v>-607778</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
+        <v>-226285</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B22" s="16" t="s">
         <v>37</v>
       </c>
       <c r="C22" s="17"/>
       <c r="D22" s="17">
-        <v>643737</v>
+        <v>923533</v>
       </c>
       <c r="E22" s="17">
-        <v>923533</v>
+        <v>420655</v>
       </c>
       <c r="F22" s="17">
-        <v>420655</v>
-      </c>
-      <c r="G22" s="17">
         <v>711623</v>
       </c>
-      <c r="H22" s="17" t="s">
-        <v>26</v>
+      <c r="G22" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="17">
+        <v>1032057</v>
       </c>
       <c r="I22" s="17">
-        <v>1032057</v>
+        <v>1017491</v>
       </c>
       <c r="J22" s="17">
-        <v>1017491</v>
+        <v>2027153</v>
       </c>
       <c r="K22" s="17">
-        <v>2027153</v>
+        <v>2827085</v>
       </c>
       <c r="L22" s="17">
-        <v>2827085</v>
+        <v>4193774</v>
       </c>
       <c r="M22" s="17">
-        <v>4193774</v>
-      </c>
-    </row>
-    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1223165</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B23" s="12" t="s">
         <v>38</v>
       </c>
@@ -1267,11 +1267,11 @@
       <c r="F23" s="13">
         <v>0</v>
       </c>
-      <c r="G23" s="13">
-        <v>0</v>
-      </c>
-      <c r="H23" s="13" t="s">
-        <v>26</v>
+      <c r="G23" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
       </c>
       <c r="I23" s="13">
         <v>0</v>
@@ -1289,79 +1289,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B24" s="16" t="s">
         <v>39</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17">
-        <v>643737</v>
+        <v>923533</v>
       </c>
       <c r="E24" s="17">
-        <v>923533</v>
+        <v>420655</v>
       </c>
       <c r="F24" s="17">
-        <v>420655</v>
-      </c>
-      <c r="G24" s="17">
         <v>711623</v>
       </c>
-      <c r="H24" s="17" t="s">
-        <v>26</v>
+      <c r="G24" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="H24" s="17">
+        <v>1032057</v>
       </c>
       <c r="I24" s="17">
-        <v>1032057</v>
+        <v>1017491</v>
       </c>
       <c r="J24" s="17">
-        <v>1017491</v>
+        <v>2027153</v>
       </c>
       <c r="K24" s="17">
-        <v>2027153</v>
+        <v>2827085</v>
       </c>
       <c r="L24" s="17">
-        <v>2827085</v>
+        <v>4193774</v>
       </c>
       <c r="M24" s="17">
-        <v>4193774</v>
-      </c>
-    </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1223165</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B25" s="12" t="s">
         <v>40</v>
       </c>
       <c r="C25" s="13"/>
       <c r="D25" s="13">
-        <v>1287</v>
+        <v>1847</v>
       </c>
       <c r="E25" s="13">
-        <v>1847</v>
+        <v>841</v>
       </c>
       <c r="F25" s="13">
-        <v>841</v>
-      </c>
-      <c r="G25" s="13">
         <v>1423</v>
       </c>
-      <c r="H25" s="13" t="s">
-        <v>26</v>
+      <c r="G25" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" s="13">
+        <v>1032</v>
       </c>
       <c r="I25" s="13">
-        <v>1032</v>
+        <v>2035</v>
       </c>
       <c r="J25" s="13">
-        <v>2035</v>
+        <v>4054</v>
       </c>
       <c r="K25" s="13">
-        <v>4054</v>
+        <v>2827</v>
       </c>
       <c r="L25" s="13">
-        <v>2827</v>
+        <v>4194</v>
       </c>
       <c r="M25" s="13">
-        <v>4194</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B26" s="10" t="s">
         <v>41</v>
       </c>
@@ -1375,20 +1375,20 @@
       <c r="F26" s="11">
         <v>500000</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="11">
+        <v>1000000</v>
+      </c>
+      <c r="I26" s="11">
         <v>500000</v>
-      </c>
-      <c r="H26" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="I26" s="11">
-        <v>1000000</v>
       </c>
       <c r="J26" s="11">
         <v>500000</v>
       </c>
       <c r="K26" s="11">
-        <v>500000</v>
+        <v>1000000</v>
       </c>
       <c r="L26" s="11">
         <v>1000000</v>
@@ -1397,43 +1397,43 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B27" s="12" t="s">
         <v>42</v>
       </c>
       <c r="C27" s="13"/>
       <c r="D27" s="13">
-        <v>644</v>
+        <v>924</v>
       </c>
       <c r="E27" s="13">
-        <v>924</v>
+        <v>421</v>
       </c>
       <c r="F27" s="13">
-        <v>421</v>
-      </c>
-      <c r="G27" s="13">
         <v>712</v>
       </c>
-      <c r="H27" s="13" t="s">
-        <v>26</v>
+      <c r="G27" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" s="13">
+        <v>1032</v>
       </c>
       <c r="I27" s="13">
-        <v>1032</v>
+        <v>1017</v>
       </c>
       <c r="J27" s="13">
-        <v>1017</v>
+        <v>2027</v>
       </c>
       <c r="K27" s="13">
-        <v>2027</v>
+        <v>2827</v>
       </c>
       <c r="L27" s="13">
-        <v>2827</v>
+        <v>4194</v>
       </c>
       <c r="M27" s="13">
-        <v>4194</v>
-      </c>
-    </row>
-    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.3">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
